--- a/extraction1.xlsx
+++ b/extraction1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Weapons</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>Hp</t>
+  </si>
+  <si>
+    <t>Damage_dealt</t>
+  </si>
+  <si>
+    <t>Weapon_damage</t>
   </si>
 </sst>
 </file>
@@ -525,238 +531,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.36328125" customWidth="1"/>
-    <col min="2" max="3" width="14.26953125" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" customWidth="1"/>
+    <col min="3" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
         <v>100</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
         <v>110</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
         <v>300</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>54</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5">
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
         <v>500</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>47</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
         <v>400</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7">
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
         <v>200</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>49</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C8">
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
         <v>800</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="C9">
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
         <v>700</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>43</v>
       </c>
-      <c r="C10">
+      <c r="D10">
+        <v>23</v>
+      </c>
+      <c r="E10">
         <v>600</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>52</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="C11">
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
         <v>400</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>53</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>34</v>
       </c>
     </row>

--- a/extraction1.xlsx
+++ b/extraction1.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$11</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -534,7 +537,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,55 +577,55 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2">
-        <v>10</v>
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2">
-        <v>100</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>83</v>
+      </c>
+      <c r="E2">
+        <v>300</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E3">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -630,16 +633,16 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="E4">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="F4" t="s">
         <v>46</v>
@@ -653,187 +656,192 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="E5">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="E6">
         <v>400</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7">
-        <v>25</v>
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2">
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>200</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
+        <v>75</v>
+      </c>
+      <c r="E7" s="2">
+        <v>430</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="E8">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="E9">
-        <v>700</v>
+        <v>470</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="E10">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="E11">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H11">
+    <sortState ref="A2:H11">
+      <sortCondition ref="B1:B11"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
